--- a/medicine/Pharmacie/Nitrendipine/Nitrendipine.xlsx
+++ b/medicine/Pharmacie/Nitrendipine/Nitrendipine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La nitrendipine est une molécule de la famille des dihydropyridines qui a un effet antagoniste du calcium. Elle est principalement utilisée comme médicament antihypertenseur.
@@ -512,7 +524,9 @@
           <t>Propriétés pharmacologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nitrendipine bloque les canaux du calcium présents sur les muscles qui entourent les vaisseaux sanguins (voir Inhibiteur calcique). Ce qui entraîne leur relaxation et la dilatation des vaisseaux sanguins. Ainsi la tension artérielle diminue.
 </t>
@@ -543,7 +557,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets indésirables les plus fréquents sont :
 maux de tête,
@@ -580,9 +596,11 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nitrendipine contient un stéréocentre et se compose  donc de deux énantiomères. Pratiquement, c'est un racémique, c'est-à-dire un mélange 1:1 des formes ( R ) et ( S )[5]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nitrendipine contient un stéréocentre et se compose  donc de deux énantiomères. Pratiquement, c'est un racémique, c'est-à-dire un mélange 1:1 des formes ( R ) et ( S ):
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Spécialités contenant de la nitrendipine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
